--- a/Örnek 13 - Otomatik Tamamlama.xlsx
+++ b/Örnek 13 - Otomatik Tamamlama.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kagan_GUL\Desktop\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kubo_\OneDrive\Masaüstü\excel ödevi 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{10F9997B-8023-4426-BC6B-FDACB043D524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>ocak</t>
   </si>
@@ -45,13 +46,70 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>şubat</t>
+  </si>
+  <si>
+    <t>mart</t>
+  </si>
+  <si>
+    <t>nisan</t>
+  </si>
+  <si>
+    <t>mayıs</t>
+  </si>
+  <si>
+    <t>haziran</t>
+  </si>
+  <si>
+    <t>temmuz</t>
+  </si>
+  <si>
+    <t>ağustos</t>
+  </si>
+  <si>
+    <t>eylül</t>
+  </si>
+  <si>
+    <t>ekim</t>
+  </si>
+  <si>
+    <t>kasım</t>
+  </si>
+  <si>
+    <t>aralık</t>
+  </si>
+  <si>
+    <t>Salı</t>
+  </si>
+  <si>
+    <t>Çarşamba</t>
+  </si>
+  <si>
+    <t>Perşembe</t>
+  </si>
+  <si>
+    <t>Cuma</t>
+  </si>
+  <si>
+    <t>Cumartesi</t>
+  </si>
+  <si>
+    <t>Pazar</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Tur"/>
@@ -60,12 +118,6 @@
     <font>
       <sz val="14"/>
       <color indexed="18"/>
-      <name val="Candara"/>
-      <family val="2"/>
-      <charset val="162"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Candara"/>
       <family val="2"/>
       <charset val="162"/>
@@ -127,29 +179,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -433,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="190" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:F20"/>
+    <sheetView tabSelected="1" zoomScale="190" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -449,150 +495,288 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
         <v>40179</v>
       </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40210</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>20</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40238</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40269</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40299</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40330</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>30</v>
+      </c>
+      <c r="G10" s="3">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>40360</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>35</v>
+      </c>
+      <c r="G11" s="1">
+        <v>70</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>40391</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>40</v>
+      </c>
+      <c r="G12" s="3">
+        <v>80</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>40422</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>90</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40452</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>50</v>
+      </c>
+      <c r="G14" s="3">
+        <v>100</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40483</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1">
+        <v>110</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2">
+        <v>40513</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3">
+        <v>120</v>
+      </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="D18" s="7">
+        <v>20215070019</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.2">
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -609,7 +793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -623,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
